--- a/Wiki/Downloads/Sampling_event_data_regneark.xlsx
+++ b/Wiki/Downloads/Sampling_event_data_regneark.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pnc907/Desktop/DanBIF:Arter/DanBIF/DanBIF Wiki/Regneark/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7481008D-5A57-9245-B448-49B93D796EA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2C86E8C-A918-DD4B-9F85-5A3FA14D8B72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1035,9 +1035,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B940B52C-B253-8143-9620-F14703F00927}">
   <dimension ref="A1:Z993"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
   <cols>

--- a/Wiki/Downloads/Sampling_event_data_regneark.xlsx
+++ b/Wiki/Downloads/Sampling_event_data_regneark.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pnc907/Desktop/DanBIF-Arter/DanBIF/DanBIF Wiki/Regneark/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CD9679F-31ED-4142-992E-6666F9A5D6FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B576AA41-E827-BE46-9AC5-4F52E35E38C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="41100" yWindow="1200" windowWidth="30700" windowHeight="21040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3782,7 +3782,7 @@
   <dimension ref="A1:U988"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K1048576"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -4865,8 +4865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AB988"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="AA2" sqref="AA2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
